--- a/data/pinakas.xlsx
+++ b/data/pinakas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t xml:space="preserve">πληθυσμός Δήμου Παύλου Μελά</t>
   </si>
@@ -59,39 +59,123 @@
     <t xml:space="preserve">Αποδεκτές Τιμές</t>
   </si>
   <si>
-    <t xml:space="preserve">ΠΕ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΠΕ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΠΕ(Ν)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Κάτω Τερψιθέα </t>
   </si>
   <si>
+    <t xml:space="preserve">Κεντρική Τερψιθέα </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Τερψιθέα - Αμπελώνες </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Πρόνοια </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κάτω Ομόνοια </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κεντρική Ομόνοια </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Άνω Ομόνοια </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Νεόκτιστα </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Άνωθεν Ασύλου </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κάτω Ηλιούπολη </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ηλιούπολη - Συγκρ. Σχολείων </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ηλιούπολη - Κτημα Ρέτσου </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κέντρο Ηλιούπολης </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Άνω Ηλιούπολη </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κάτω Νικόπολη </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Άνω Νικόπολη </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Π.Ε. 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Παλιός οικισμός, τμήμα επέκτασης &amp; ΟΕΚ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ανθόκηποι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Τραυματιούπολη</t>
+  </si>
+  <si>
     <t xml:space="preserve">Διοίκηση-Εξυπηρετήσεις</t>
   </si>
   <si>
     <t xml:space="preserve">0.1-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Κεντρική Τερψιθέα </t>
-  </si>
-  <si>
     <t xml:space="preserve">Νηπιαγωγείο</t>
   </si>
   <si>
     <t xml:space="preserve">0.3-0.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Τερψιθέα - Αμπελώνες </t>
-  </si>
-  <si>
     <t xml:space="preserve">Δημοτικό</t>
   </si>
   <si>
@@ -104,9 +188,6 @@
     <t xml:space="preserve">Εκτίμηση πληθυσμού για 2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Πρόνοια </t>
-  </si>
-  <si>
     <t xml:space="preserve">Γυμνάσιο</t>
   </si>
   <si>
@@ -116,9 +197,6 @@
     <t xml:space="preserve">1991-2001</t>
   </si>
   <si>
-    <t xml:space="preserve">Κάτω Ομόνοια </t>
-  </si>
-  <si>
     <t xml:space="preserve">Λύκειο</t>
   </si>
   <si>
@@ -128,9 +206,6 @@
     <t xml:space="preserve">2001-2011</t>
   </si>
   <si>
-    <t xml:space="preserve">Κεντρική Ομόνοια </t>
-  </si>
-  <si>
     <t xml:space="preserve">Γυμνάσιο-Λύκειο</t>
   </si>
   <si>
@@ -140,33 +215,18 @@
     <t xml:space="preserve">1991-2011</t>
   </si>
   <si>
-    <t xml:space="preserve">Άνω Ομόνοια </t>
-  </si>
-  <si>
     <t xml:space="preserve">Υγεία-Πρόνοια (παιδ. Σταθμοί, ΚΑΠΗ, γηροκομείο)</t>
   </si>
   <si>
-    <t xml:space="preserve">Νεόκτιστα </t>
-  </si>
-  <si>
     <t xml:space="preserve">Αθλητισμός</t>
   </si>
   <si>
-    <t xml:space="preserve">Άνωθεν Ασύλου </t>
-  </si>
-  <si>
     <t xml:space="preserve">Πολιτισμός</t>
   </si>
   <si>
-    <t xml:space="preserve">Κάτω Ηλιούπολη </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ναοί</t>
   </si>
   <si>
-    <t xml:space="preserve">Ηλιούπολη - Συγκρ. Σχολείων </t>
-  </si>
-  <si>
     <t xml:space="preserve">Λιανικό Εμπόριο</t>
   </si>
   <si>
@@ -176,82 +236,13 @@
     <t xml:space="preserve">στο διάστημα 2013-2019 οι θάνατοι ξεπερνούν τις γεννήσεις κατά 190.000</t>
   </si>
   <si>
-    <t xml:space="preserve">Ηλιούπολη - Κτημα Ρέτσου </t>
-  </si>
-  <si>
     <t xml:space="preserve">Παραγωγικές Εγκαταστάσεις (βιομηχανία, τουρισμός κ.ά.)</t>
   </si>
   <si>
     <t xml:space="preserve">0.2-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Κέντρο Ηλιούπολης </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Άνω Ηλιούπολη </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κάτω Νικόπολη </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Άνω Νικόπολη </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ελπίδα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Επέκταση Ελπίδας</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κάτω Μετέωρα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μετέωρα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Άνω Μετέωρα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μετέωρα κάτω από το άλσος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Παλαιός Οικισμός</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Νεκροταφεία</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Παύλου Μελά</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Π.Ε. 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Π.Ε. 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Γυμνάσια</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ανθόκηποι</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Νικόπολη Πολίχνης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μετέωρα – Υδραγωγείο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Επέκταση Πολίχνης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Παλιός οικισμός, τμήμα επέκτασης &amp; ΟΕΚ</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Τραυματιούπολη</t>
   </si>
   <si>
     <t xml:space="preserve">Εκπαίδευση</t>
@@ -378,7 +369,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -419,12 +410,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -456,10 +455,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:AY65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,13 +473,35 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="51.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="26.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="33" style="0" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="42" style="0" width="7.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="36.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -568,6 +589,99 @@
       <c r="T3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="U3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -577,7 +691,7 @@
         <v>99245</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>21</v>
@@ -604,19 +718,50 @@
         <v>0</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>22.25</v>
@@ -643,19 +788,50 @@
         <v>0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>26.25</v>
@@ -682,25 +858,56 @@
         <v>0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>20</v>
@@ -727,19 +934,50 @@
         <v>0</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">(B3/B2)^(1/10)-1</f>
@@ -750,7 +988,7 @@
         <v>134341.072491649</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>18</v>
@@ -777,19 +1015,50 @@
         <v>0</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">(B4/B3)^(1/10)-1</f>
@@ -800,7 +1069,7 @@
         <v>126555.515200878</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>18.75</v>
@@ -827,19 +1096,50 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">(B4/B2)^(1/20)-1</f>
@@ -850,7 +1150,7 @@
         <v>130390.197644681</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>16.5</v>
@@ -877,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="P10" s="9" t="n">
         <v>0.32</v>
@@ -886,6 +1186,37 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
@@ -893,7 +1224,7 @@
         <v>126806.398446547</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>12.5</v>
@@ -920,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="P11" s="9" t="n">
         <v>5.5</v>
@@ -929,10 +1260,41 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="n">
         <v>19.5</v>
@@ -959,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="P12" s="9" t="n">
         <v>0.2</v>
@@ -968,10 +1330,41 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>16.75</v>
@@ -998,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="P13" s="9" t="n">
         <f aca="false">1.5</f>
@@ -1020,10 +1413,41 @@
         <f aca="false">1.5</f>
         <v>1.5</v>
       </c>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="n">
         <v>16</v>
@@ -1050,22 +1474,53 @@
         <v>0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="n">
         <v>16</v>
@@ -1091,20 +1546,51 @@
         <f aca="false">K15*L15*G15</f>
         <v>0</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="O15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>17.75</v>
@@ -1133,7 +1619,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="5" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>27</v>
@@ -1162,7 +1648,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="n">
         <v>24.12</v>
@@ -1191,7 +1677,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F19" s="7" t="n">
         <v>20.75</v>
@@ -1219,8 +1705,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="12" t="s">
-        <v>58</v>
+      <c r="E20" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="F20" s="7" t="n">
         <v>17.32</v>
@@ -1248,8 +1734,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="12" t="s">
-        <v>59</v>
+      <c r="E21" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="7" t="n">
         <v>12.22</v>
@@ -1277,8 +1763,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="12" t="s">
-        <v>60</v>
+      <c r="E22" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F22" s="7" t="n">
         <v>23.29</v>
@@ -1290,24 +1776,20 @@
       <c r="H22" s="7" t="n">
         <v>1.69</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <f aca="false">35</f>
-        <v>35</v>
-      </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="7" t="n">
+      <c r="K22" s="7" t="e">
         <f aca="false">(H22/(I22+J22*H22))*POWER(10, 4)</f>
-        <v>482.857142857143</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="7" t="n">
+      <c r="M22" s="7" t="e">
         <f aca="false">K22*L22*G22</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="12" t="s">
-        <v>61</v>
+      <c r="E23" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="n">
         <v>20.13</v>
@@ -1335,8 +1817,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="12" t="s">
-        <v>62</v>
+      <c r="E24" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="n">
         <v>27.25</v>
@@ -1364,8 +1846,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="12" t="s">
-        <v>63</v>
+      <c r="E25" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="n">
         <v>15.23</v>
@@ -1393,8 +1875,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="12" t="s">
-        <v>64</v>
+      <c r="E26" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="F26" s="7" t="n">
         <v>17.24</v>
@@ -1422,8 +1904,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="12" t="s">
-        <v>65</v>
+      <c r="E27" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="n">
         <v>17.68</v>
@@ -1451,8 +1933,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="12" t="s">
-        <v>66</v>
+      <c r="E28" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="F28" s="7" t="n">
         <v>13.38</v>
@@ -1480,8 +1962,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="12" t="s">
-        <v>67</v>
+      <c r="E29" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="F29" s="7" t="n">
         <v>15.91</v>
@@ -1509,8 +1991,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="12" t="s">
-        <v>68</v>
+      <c r="E30" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="F30" s="7" t="n">
         <v>36.8</v>
@@ -1538,8 +2020,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="12" t="s">
-        <v>69</v>
+      <c r="E31" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="n">
         <v>34.85</v>
@@ -1567,8 +2049,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="12" t="s">
-        <v>70</v>
+      <c r="E32" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="F32" s="7" t="n">
         <v>38.04</v>
@@ -1596,8 +2078,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="12" t="s">
-        <v>71</v>
+      <c r="E33" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="n">
         <v>20.23</v>
@@ -1625,8 +2107,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="12" t="s">
-        <v>72</v>
+      <c r="E34" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="F34" s="7" t="n">
         <v>31.37</v>
@@ -1654,8 +2136,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="12" t="s">
-        <v>73</v>
+      <c r="E35" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F35" s="7" t="n">
         <v>46.75</v>
@@ -1684,7 +2166,7 @@
     </row>
     <row r="36" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="5" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F36" s="7" t="n">
         <v>97.4</v>
@@ -1694,7 +2176,7 @@
         <v>68.18</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I36" s="7" t="n">
         <f aca="false">35</f>
@@ -1712,8 +2194,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="12" t="s">
-        <v>70</v>
+      <c r="E37" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="F37" s="7" t="n">
         <v>21</v>
@@ -1741,30 +2223,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="14" t="n">
+      <c r="E38" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="16" t="n">
         <v>32.7</v>
       </c>
-      <c r="G38" s="14" t="n">
+      <c r="G38" s="16" t="n">
         <f aca="false">F38-F38*0.3</f>
         <v>22.89</v>
       </c>
-      <c r="H38" s="14" t="n">
+      <c r="H38" s="16" t="n">
         <v>0.8</v>
       </c>
-      <c r="I38" s="14" t="n">
-        <f aca="false">35</f>
-        <v>35</v>
-      </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14" t="n">
+      <c r="I38" s="16" t="n">
+        <f aca="false">35</f>
+        <v>35</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16" t="n">
         <f aca="false">(H38/(I38+J38*H38))*POWER(10, 4)</f>
         <v>228.571428571429</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14" t="n">
+      <c r="L38" s="16"/>
+      <c r="M38" s="16" t="n">
         <f aca="false">K38*L38*G38</f>
         <v>0</v>
       </c>
@@ -1779,55 +2261,55 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.32</v>
@@ -1835,7 +2317,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>5.5</v>
@@ -1843,7 +2325,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.2</v>
@@ -1851,7 +2333,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1.5</v>
@@ -1859,102 +2341,102 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
